--- a/static/uploads/mau/nhaphophong/taohopdong.xlsx
+++ b/static/uploads/mau/nhaphophong/taohopdong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\nhaphophong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2794B4-3296-4786-9157-ABD00D325C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73505A4C-9226-4106-9DB5-9DDC6FED1509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF705DD9-3C65-4824-9431-C7CE35B9AF6D}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Hợp đồng thử việc</t>
   </si>
   <si>
-    <t>Nhân viên IT</t>
-  </si>
-  <si>
     <t>1HRD</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>031092001190</t>
+  </si>
+  <si>
+    <t>Nhân viên IT cấp 2</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3">
         <v>44439</v>
@@ -651,13 +651,13 @@
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="5">
         <v>7366000</v>
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3">
         <v>44439</v>
@@ -704,16 +704,16 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="5">
         <v>7366000</v>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3">
         <v>44439</v>
@@ -760,16 +760,16 @@
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="O4" s="5">
         <v>8800000</v>
@@ -779,6 +779,9 @@
       </c>
       <c r="Q4" s="3">
         <v>45474</v>
+      </c>
+      <c r="R4" s="3">
+        <v>45510</v>
       </c>
     </row>
   </sheetData>

--- a/static/uploads/mau/nhaphophong/taohopdong.xlsx
+++ b/static/uploads/mau/nhaphophong/taohopdong.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\nhaphophong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73505A4C-9226-4106-9DB5-9DDC6FED1509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE09B31-07DC-4A48-B45B-4ADA346F0B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF705DD9-3C65-4824-9431-C7CE35B9AF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Mã công ty</t>
   </si>
@@ -84,37 +85,46 @@
     <t>NT1</t>
   </si>
   <si>
-    <t>Đỗ Tiến Đạt</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>89 Vạn Kiếp, Thượng Lý, Hồng Bàng, Hải Phòng</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
+    <t>Đào Thị Liên</t>
+  </si>
+  <si>
+    <t>1ACT00</t>
+  </si>
+  <si>
+    <t>Nhân viên kế toán cấp 2</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Hòa Bình, Lưu Kiếm, Thủy Nguyên</t>
+  </si>
+  <si>
+    <t>Thôn Lương Đuông, Hòa Bình, Thủy Nguyên, Hải Phòng</t>
+  </si>
+  <si>
+    <t>031186009221</t>
+  </si>
+  <si>
+    <t>1ACT</t>
+  </si>
+  <si>
     <t>Hợp đồng thử việc</t>
   </si>
   <si>
-    <t>1HRD</t>
-  </si>
-  <si>
-    <t>1ISD00</t>
+    <t>Hợp đồng có thời hạn 28 ngày</t>
   </si>
   <si>
     <t>Hợp đồng có thời hạn 1 năm</t>
   </si>
   <si>
+    <t>Hợp đồng vô thời hạn</t>
+  </si>
+  <si>
     <t>Phụ lục hợp đồng</t>
-  </si>
-  <si>
-    <t>031092001190</t>
-  </si>
-  <si>
-    <t>Nhân viên IT cấp 2</t>
   </si>
 </sst>
 </file>
@@ -125,7 +135,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +157,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,26 +550,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7851E-53E1-4A92-8724-271B72814170}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -621,171 +639,484 @@
         <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>12579</v>
+        <v>13235</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3">
+        <v>31518</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44311</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
-        <v>33917</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44439</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="5">
-        <v>7366000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5">
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>45085</v>
+        <v>45481</v>
       </c>
       <c r="R2" s="3">
-        <v>45145</v>
+        <v>45845</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12579</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>33917</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16A1AC6E-954C-47E0-A841-DFE9846D362A}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K43</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B83F7-F680-4D08-9C8D-75A22AF6EB36}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3">
-        <v>44439</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="5">
-        <v>7366000</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>45145</v>
-      </c>
-      <c r="R3" s="3">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12579</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <v>33917</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44439</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="5">
-        <v>8800000</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>45474</v>
-      </c>
-      <c r="R4" s="3">
-        <v>45510</v>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>